--- a/Game/EnemyCollision.xlsx
+++ b/Game/EnemyCollision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Angel</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,14 +172,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -484,10 +496,10 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -498,10 +510,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -510,24 +522,24 @@
       <c r="D2">
         <v>78.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>63.28</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>79.69</v>
       </c>
       <c r="G2">
-        <f>0.64*E2</f>
+        <f t="shared" ref="G2:G21" si="0">0.64*E2</f>
         <v>40.499200000000002</v>
       </c>
       <c r="H2">
-        <f>0.64*F2</f>
+        <f t="shared" ref="H2:H21" si="1">0.64*F2</f>
         <v>51.001599999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -536,26 +548,26 @@
       <c r="D3">
         <v>128</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>98.44</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>108.59</v>
       </c>
       <c r="G3">
-        <f>0.64*E3</f>
+        <f t="shared" si="0"/>
         <v>63.001600000000003</v>
       </c>
       <c r="H3">
-        <f>0.64*F3</f>
+        <f t="shared" si="1"/>
         <v>69.497600000000006</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f>B2</f>
         <v>Head</v>
       </c>
@@ -565,25 +577,25 @@
       <c r="D4">
         <v>68.87</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>53.91</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>65.23</v>
       </c>
       <c r="G4">
-        <f>0.64*E4</f>
+        <f t="shared" si="0"/>
         <v>34.502400000000002</v>
       </c>
       <c r="H4">
-        <f>0.64*F4</f>
+        <f t="shared" si="1"/>
         <v>41.747200000000007</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B19" si="0">B3</f>
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="str">
+        <f t="shared" ref="B5:B19" si="2">B3</f>
         <v>Body</v>
       </c>
       <c r="C5">
@@ -592,27 +604,27 @@
       <c r="D5">
         <v>107</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>104.69</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>106.25</v>
       </c>
       <c r="G5">
-        <f>0.64*E5</f>
+        <f t="shared" si="0"/>
         <v>67.001599999999996</v>
       </c>
       <c r="H5">
-        <f>0.64*F5</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C6">
@@ -621,25 +633,25 @@
       <c r="D6">
         <v>95.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>84.38</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>117.19</v>
       </c>
       <c r="G6">
-        <f>0.64*E6</f>
+        <f t="shared" si="0"/>
         <v>54.0032</v>
       </c>
       <c r="H6">
-        <f>0.64*F6</f>
+        <f t="shared" si="1"/>
         <v>75.001599999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C7">
@@ -648,27 +660,27 @@
       <c r="D7">
         <v>197.11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>209.38</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>246.54</v>
       </c>
       <c r="G7">
-        <f>0.64*E7</f>
+        <f t="shared" si="0"/>
         <v>134.00319999999999</v>
       </c>
       <c r="H7">
-        <f>0.64*F7</f>
+        <f t="shared" si="1"/>
         <v>157.78559999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C8">
@@ -677,25 +689,25 @@
       <c r="D8">
         <v>68</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>59.38</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8">
-        <f>0.64*E8</f>
+        <f t="shared" si="0"/>
         <v>38.0032</v>
       </c>
       <c r="H8">
-        <f>0.64*F8</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C9">
@@ -704,27 +716,27 @@
       <c r="D9">
         <v>120.99</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>103.91</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>134.34</v>
       </c>
       <c r="G9">
-        <f>0.64*E9</f>
+        <f t="shared" si="0"/>
         <v>66.502399999999994</v>
       </c>
       <c r="H9">
-        <f>0.64*F9</f>
+        <f t="shared" si="1"/>
         <v>85.97760000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C10">
@@ -733,25 +745,25 @@
       <c r="D10">
         <v>83.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>67.58</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>85.94</v>
       </c>
       <c r="G10">
-        <f>0.64*E10</f>
+        <f t="shared" si="0"/>
         <v>43.251199999999997</v>
       </c>
       <c r="H10">
-        <f>0.64*F10</f>
+        <f t="shared" si="1"/>
         <v>55.001599999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C11">
@@ -760,27 +772,27 @@
       <c r="D11">
         <v>132</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>92.19</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>106.25</v>
       </c>
       <c r="G11">
-        <f>0.64*E11</f>
+        <f t="shared" si="0"/>
         <v>59.001599999999996</v>
       </c>
       <c r="H11">
-        <f>0.64*F11</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C12">
@@ -789,25 +801,25 @@
       <c r="D12">
         <v>74.5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>76.34</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>104.69</v>
       </c>
       <c r="G12">
-        <f>0.64*E12</f>
+        <f t="shared" si="0"/>
         <v>48.857600000000005</v>
       </c>
       <c r="H12">
-        <f>0.64*F12</f>
+        <f t="shared" si="1"/>
         <v>67.001599999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C13">
@@ -816,27 +828,27 @@
       <c r="D13">
         <v>131</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>112.41</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>121.88</v>
       </c>
       <c r="G13">
-        <f>0.64*E13</f>
+        <f t="shared" si="0"/>
         <v>71.942400000000006</v>
       </c>
       <c r="H13">
-        <f>0.64*F13</f>
+        <f t="shared" si="1"/>
         <v>78.003199999999993</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C14">
@@ -845,25 +857,25 @@
       <c r="D14">
         <v>71.75</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>68.75</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>80.47</v>
       </c>
       <c r="G14">
-        <f>0.64*E14</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H14">
-        <f>0.64*F14</f>
+        <f t="shared" si="1"/>
         <v>51.500799999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C15">
@@ -872,27 +884,27 @@
       <c r="D15">
         <v>123.5</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>110.94</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>114.06</v>
       </c>
       <c r="G15">
-        <f>0.64*E15</f>
+        <f t="shared" si="0"/>
         <v>71.001599999999996</v>
       </c>
       <c r="H15">
-        <f>0.64*F15</f>
+        <f t="shared" si="1"/>
         <v>72.998400000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C16">
@@ -901,25 +913,25 @@
       <c r="D16">
         <v>71</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>63.23</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>78.13</v>
       </c>
       <c r="G16">
-        <f>0.64*E16</f>
+        <f t="shared" si="0"/>
         <v>40.467199999999998</v>
       </c>
       <c r="H16">
-        <f>0.64*F16</f>
+        <f t="shared" si="1"/>
         <v>50.0032</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C17">
@@ -928,27 +940,27 @@
       <c r="D17">
         <v>121.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>119.05</v>
       </c>
       <c r="G17">
-        <f>0.64*E17</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="H17">
-        <f>0.64*F17</f>
+        <f t="shared" si="1"/>
         <v>76.191999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Head</v>
       </c>
       <c r="C18">
@@ -957,25 +969,25 @@
       <c r="D18">
         <v>76.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>62.14</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>75</v>
       </c>
       <c r="G18">
-        <f>0.64*E18</f>
+        <f t="shared" si="0"/>
         <v>39.769600000000004</v>
       </c>
       <c r="H18">
-        <f>0.64*F18</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Body</v>
       </c>
       <c r="C19">
@@ -984,23 +996,78 @@
       <c r="D19">
         <v>120</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>110.56</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>112.5</v>
       </c>
       <c r="G19">
-        <f>0.64*E19</f>
+        <f t="shared" si="0"/>
         <v>70.758400000000009</v>
       </c>
       <c r="H19">
-        <f>0.64*F19</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>64.84</v>
+      </c>
+      <c r="D20">
+        <v>75.11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>67.19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>43.001599999999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>127.25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>106.25</v>
+      </c>
+      <c r="F21" s="3">
+        <v>102.34</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>65.497600000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
